--- a/策划文档/ItemData.xlsx
+++ b/策划文档/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>specialType</t>
+  </si>
+  <si>
+    <t>story</t>
   </si>
   <si>
     <t>int</t>
@@ -83,10 +86,22 @@
 2:法宝</t>
   </si>
   <si>
+    <t>道具剧情</t>
+  </si>
+  <si>
     <t>翠微业力·小</t>
   </si>
   <si>
     <t>提升生命值</t>
+  </si>
+  <si>
+    <t>密室对谈·一个中年人和一个年轻人（下）
+“等你再醒来的时候，不知道会是什么时代，但如果不是我叫醒你的话，估计要有苦头等着你吃。”
+“能有多苦？”
+“比你师姐烧得饭菜还苦。”
+“那我有点后悔了……”
+“最后一句话是耍贫嘴？”
+“师父……保重，还有他们也……”</t>
   </si>
   <si>
     <t>翠微业力·中</t>
@@ -220,14 +235,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,148 +693,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1198,28 +1206,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="38.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="38.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="59.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1231,56 +1240,65 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="108" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="108" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="108" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1291,16 +1309,19 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:6">
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="108" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -1311,16 +1332,19 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:6">
+      <c r="G5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="108" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -1331,16 +1355,19 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:6">
+      <c r="G6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="108" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -1351,16 +1378,19 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:6">
+      <c r="G7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="108" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1371,16 +1401,19 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:6">
+      <c r="G8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="108" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
@@ -1391,16 +1424,19 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:6">
+      <c r="G9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="108" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="5">
         <v>3</v>
@@ -1411,16 +1447,19 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:6">
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="108" spans="1:7">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D11" s="5">
         <v>3</v>
@@ -1431,16 +1470,19 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:6">
+      <c r="G11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="108" spans="1:7">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D12" s="5">
         <v>3</v>
@@ -1451,16 +1493,19 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:6">
+      <c r="G12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="108" spans="1:7">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D13" s="5">
         <v>5</v>
@@ -1471,16 +1516,19 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:6">
+      <c r="G13" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="108" spans="1:7">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D14" s="5">
         <v>5</v>
@@ -1491,16 +1539,19 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:6">
+      <c r="G14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="108" spans="1:7">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D15" s="5">
         <v>5</v>
@@ -1511,16 +1562,19 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:6">
+      <c r="G15" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="108" spans="1:7">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D16" s="5">
         <v>6</v>
@@ -1531,16 +1585,19 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:6">
+      <c r="G16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="108" spans="1:7">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D17" s="5">
         <v>6</v>
@@ -1551,16 +1608,19 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:6">
+      <c r="G17" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="108" spans="1:7">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D18" s="5">
         <v>6</v>
@@ -1571,16 +1631,19 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" ht="27" spans="1:6">
+      <c r="G18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="108" spans="1:7">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D19" s="5">
         <v>201</v>
@@ -1591,16 +1654,19 @@
       <c r="F19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="108" spans="1:7">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D20" s="5">
         <v>202</v>
@@ -1611,16 +1677,19 @@
       <c r="F20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" ht="27" spans="1:6">
+      <c r="G20" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="108" spans="1:7">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D21" s="5">
         <v>203</v>
@@ -1631,16 +1700,19 @@
       <c r="F21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:6">
+      <c r="G21" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="108" spans="1:7">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D22" s="5">
         <v>301</v>
@@ -1651,16 +1723,19 @@
       <c r="F22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:6">
+      <c r="G22" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="108" spans="1:7">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D23" s="5">
         <v>302</v>
@@ -1670,6 +1745,9 @@
       </c>
       <c r="F23">
         <v>2</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1701,25 +1779,25 @@
     </row>
     <row r="3" ht="73.5" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1882,10 +1960,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -1899,10 +1977,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -1916,10 +1994,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>

--- a/策划文档/ItemData.xlsx
+++ b/策划文档/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="108">
   <si>
     <t>id</t>
   </si>
@@ -95,97 +95,251 @@
     <t>提升生命值</t>
   </si>
   <si>
-    <t>密室对谈·一个中年人和一个年轻人（下）
-“等你再醒来的时候，不知道会是什么时代，但如果不是我叫醒你的话，估计要有苦头等着你吃。”
-“能有多苦？”
-“比你师姐烧得饭菜还苦。”
-“那我有点后悔了……”
-“最后一句话是耍贫嘴？”
-“师父……保重，还有他们也……”</t>
+    <t>东部苍州诞生的业力碎片，形状如同绿叶，蕴含着似有似无的生机。
+名为黑眸的灾难，不仅带来无穷无尽的浊气妖魔，同时也带来了名为业力的奇异碎片。</t>
   </si>
   <si>
     <t>翠微业力·中</t>
   </si>
   <si>
+    <t>东部苍州诞生的中型业力碎片，生命之息在碎片中翻涌，但这些生机似乎并不属于这个世界。
+名为黑眸的灾难，最早便是在苍州上方的天空出现。</t>
+  </si>
+  <si>
     <t>翠微业力·大</t>
   </si>
   <si>
+    <t>东部苍州诞生的大型业力碎片，其中蕴含着强烈的生命之息，但这些生机似乎并不属于这个世界。</t>
+  </si>
+  <si>
     <t>青碧业力·小</t>
   </si>
   <si>
     <t>提升移动速度</t>
   </si>
   <si>
+    <t>北方云州之地诞生的业力碎片，维持着奇特的形状，像一滴轻盈的露珠，其中隐隐埋藏着某种不属于这个世界的力量。</t>
+  </si>
+  <si>
     <t>青碧业力·中</t>
   </si>
   <si>
+    <t>北方云州之地诞生的中型业力碎片。</t>
+  </si>
+  <si>
     <t>青碧业力·大</t>
   </si>
   <si>
+    <t>北方云州之地诞生的大型业力碎片。</t>
+  </si>
+  <si>
     <t>玄甲业力·小</t>
   </si>
   <si>
     <t>提升护甲值</t>
   </si>
   <si>
+    <t>西方幽州之地诞生的业力碎片，质状如琉璃，通体黝黑深邃，其中隐隐埋藏着某种不属于这个世界的力量。</t>
+  </si>
+  <si>
     <t>玄甲业力·中</t>
   </si>
   <si>
+    <t>西方幽州之地诞生的中型业力碎片。</t>
+  </si>
+  <si>
     <t>玄甲业力·大</t>
   </si>
   <si>
+    <t>西方幽州之地诞生的大型业力碎片。</t>
+  </si>
+  <si>
     <t>赤霞业力·小</t>
   </si>
   <si>
     <t>提升生命恢复速度</t>
   </si>
   <si>
+    <t>南方孔雀州附近诞生的业力碎片，在孔雀州火焰群山中升腾的灼热气息，色彩如同晚霞一般美丽，但是铺面的灼热感展示着它的危险，碎片中隐隐埋藏着某种不属于这个世界的力量。</t>
+  </si>
+  <si>
     <t>赤霞业力·中</t>
   </si>
   <si>
+    <t>南方孔雀州附近诞生的中型业力碎片。</t>
+  </si>
+  <si>
     <t>赤霞业力·大</t>
   </si>
   <si>
+    <t>南方孔雀州附近诞生的大型业力碎片。</t>
+  </si>
+  <si>
     <t>赭石业力·小</t>
   </si>
   <si>
     <t>提升护甲恢复速度</t>
   </si>
   <si>
+    <t>藏于中部高山中景州的业力碎片，看似与寻常碎石无异，但常人绝对无法将其拿起，无论大小，碎片中隐隐埋藏着某种不属于这个世界的力量。</t>
+  </si>
+  <si>
     <t>赭石业力·中</t>
   </si>
   <si>
+    <t>藏于中部高山中景州的中型业力碎片。</t>
+  </si>
+  <si>
     <t>赭石业力·大</t>
   </si>
   <si>
+    <t>藏于中部高山中景州的大型业力碎片。</t>
+  </si>
+  <si>
     <t>大神通·灵台小我相</t>
   </si>
   <si>
     <t>围绕圆心生成角色分身，角色以及分身同时吸引雷劫</t>
   </si>
   <si>
+    <t>九净法门第九代掌门——百相道人陈修泽使用的大神通，此神通召唤出来的分身几乎与本体无异，能够无所拘束的行动，据说哪怕施术者本人已经死去，分身仍然可以在世间行动……</t>
+  </si>
+  <si>
     <t>小神通·三雷照影踪</t>
   </si>
   <si>
     <t>每被雷击中三次召唤一个一次性分身</t>
   </si>
   <si>
+    <t>“一真三绝”死后，曾经同辈中最被忽视的陈师弟成了三绝一代最后的掌门，没人会想到他却成为了守护山门最久的掌门。</t>
+  </si>
+  <si>
     <t>小神通·三刻换生法</t>
   </si>
   <si>
     <t>每隔一段时间会在自己所在位置召唤一个一次性分身</t>
   </si>
   <si>
+    <t>百相道人陈修泽少年时最早学会的法术，仅能够支撑一段时间的分身，帮助其逃过了许许多多功课。
+因此在少年时时常被师父责骂其好吃懒做。</t>
+  </si>
+  <si>
+    <t>大神通·将身比身</t>
+  </si>
+  <si>
+    <t>可以让分身召唤的雷电带有额外效果</t>
+  </si>
+  <si>
+    <t>在无人知晓的山洞中，男子早已透支的身体开始逐渐破碎，在生命的最后，几个飘忽的分身幻化成了那些已故之人的模样陪在男子身旁。
+“还是怀念从前的日子啊……”
+男子停止了呼吸，身边的分身逐渐消失，只剩下一个分身来到他的面前，轻轻合上其双眼。</t>
+  </si>
+  <si>
     <t>小神通·五蕴照空转厄鉴</t>
   </si>
   <si>
-    <t>角色被雷击后，雷击将随机角度反射</t>
-  </si>
-  <si>
-    <t>小神通·不自渡</t>
+    <t>角色被雷击后，雷电将随机角度反射</t>
+  </si>
+  <si>
+    <t>小神通·不渡经</t>
   </si>
   <si>
     <t>当雷电攻击怪物后会发生爆炸伤害</t>
+  </si>
+  <si>
+    <t>大神通·日月同潮引</t>
+  </si>
+  <si>
+    <t>雷电会将周围的怪物吸附牵引</t>
+  </si>
+  <si>
+    <t>九净法门因为其与众不同的修行目的，在其宗门历史上多次发生失传断代。但每当九净法门在历史中消失一段时间后，就会诞生出一位宛若命定之人将九净法门带回到世间。</t>
+  </si>
+  <si>
+    <t>小神通·三阳冲斗诀</t>
+  </si>
+  <si>
+    <t>当雷电击杀怪物后，溢出的伤害将会自动弹射到周围的怪物身上。</t>
+  </si>
+  <si>
+    <t>伴随着雷劫的出现，金色的雷电成为了修炼者们恐惧的存在，绝大多数宗门不得不开始想尽办法去逃避金色的雷劫，但也少部分古老的宗门对于雷劫有着不同的看法……</t>
+  </si>
+  <si>
+    <t>小神通·泰山金咒</t>
+  </si>
+  <si>
+    <t>角色被雷击时，会对周围产生爆炸伤害。</t>
+  </si>
+  <si>
+    <t>九净法门是世上最古老的门派之一，相较于那些逃避雷劫的宗门，他们追求着直面雷劫的那个瞬间，只有如此才能得窥那天地间最本源的道法。</t>
+  </si>
+  <si>
+    <t>小神通·流火飞星印</t>
+  </si>
+  <si>
+    <t>小神通·冰川横剑符</t>
+  </si>
+  <si>
+    <t>小神通·清风化煞印</t>
+  </si>
+  <si>
+    <t>小神通·搬山遁甲符</t>
+  </si>
+  <si>
+    <t>大神通·幻界囚真世</t>
+  </si>
+  <si>
+    <t>“一真三绝”之一“符法通绝”陆修兰所使用的大神通。
+她在观摩了某种远古传说中的凶咒后，突破了空间方寸之限后领悟的神通，曾经使用此神通将一个国家顷刻间化为齑粉。</t>
+  </si>
+  <si>
+    <t>大神通·穿念化阴雷</t>
+  </si>
+  <si>
+    <t>小神通·报春蛊</t>
+  </si>
+  <si>
+    <t>每当冬天开始，蛊奴们便开始祈祷春天赶紧到来，虽然冬天里仍能活动的蛊虫数量稀少，但都是极为阴冷痛苦的蛊虫。
+只有在春天才有如同花朵般美好温暖的蛊虫。</t>
+  </si>
+  <si>
+    <t>小神通·环身赤玉蛊</t>
+  </si>
+  <si>
+    <t>小神通·金蚕蛊</t>
+  </si>
+  <si>
+    <t>大神通·三鬼追魂蛊</t>
+  </si>
+  <si>
+    <t>大神通·脏腑养宫蛊</t>
+  </si>
+  <si>
+    <t>仅存在于远古传说中的蛊咒，将自己的器官化作饲养蛊虫的巢穴，其太过凶险的修炼方法与自杀无异。
+近百年唯一成功的是一位奴隶少年，掌握此法的诀窍究竟是对生的渴望，还是对死的漠视……</t>
+  </si>
+  <si>
+    <t>小神通·小蝇蛊</t>
+  </si>
+  <si>
+    <t>喜好叮食血肉的微小苍蝇，是最容易被驯服的蛊虫。
+蛊咒是西南边陲无名之林中居民所使用的法术，他们将血肉供奉给蛊虫，来与某种神明建立联系。</t>
+  </si>
+  <si>
+    <t>小神通·倩身凝魄步</t>
+  </si>
+  <si>
+    <t>小神通·金雷颤魂法</t>
+  </si>
+  <si>
+    <t>在上古时代，雷电是神圣的图腾。
+随着修行者不断突破自身的极限，就在他们即将触摸到某种极限之时，金色的雷电便会降下雷劫，少有修炼者可以从雷劫中存活下来。</t>
+  </si>
+  <si>
+    <t>小神通·周公游梦身</t>
+  </si>
+  <si>
+    <t>小神通·身前三尺三寸诀</t>
   </si>
   <si>
     <t>关卡等级</t>
@@ -1206,10 +1360,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1290,7 +1444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="108" spans="1:7">
+    <row r="4" ht="40.5" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1309,11 +1463,11 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="108" spans="1:7">
+    <row r="5" customFormat="1" ht="40.5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1332,16 +1486,16 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="108" spans="1:7">
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="27" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>17</v>
@@ -1355,19 +1509,19 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="108" spans="1:7">
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="77" customHeight="1" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -1378,19 +1532,19 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="108" spans="1:7">
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="42" customHeight="1" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1401,19 +1555,19 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="108" spans="1:7">
+      <c r="G8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="47" customHeight="1" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
@@ -1424,19 +1578,19 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="108" spans="1:7">
+      <c r="G9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="52" customHeight="1" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5">
         <v>3</v>
@@ -1447,19 +1601,19 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="108" spans="1:7">
+      <c r="G10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="30" customHeight="1" spans="1:7">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5">
         <v>3</v>
@@ -1470,19 +1624,19 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="108" spans="1:7">
+      <c r="G11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5">
         <v>3</v>
@@ -1493,19 +1647,19 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="108" spans="1:7">
+      <c r="G12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="63" customHeight="1" spans="1:7">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5">
         <v>5</v>
@@ -1516,19 +1670,19 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="108" spans="1:7">
+      <c r="G13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="61" customHeight="1" spans="1:7">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D14" s="5">
         <v>5</v>
@@ -1539,19 +1693,19 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" ht="108" spans="1:7">
+      <c r="G14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:7">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D15" s="5">
         <v>5</v>
@@ -1562,19 +1716,19 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" ht="108" spans="1:7">
+      <c r="G15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="40.5" spans="1:7">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D16" s="5">
         <v>6</v>
@@ -1585,19 +1739,19 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" ht="108" spans="1:7">
+      <c r="G16" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:7">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D17" s="5">
         <v>6</v>
@@ -1608,19 +1762,19 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" ht="108" spans="1:7">
+      <c r="G17" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:7">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D18" s="5">
         <v>6</v>
@@ -1631,19 +1785,19 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" ht="108" spans="1:7">
+      <c r="G18" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" ht="40.5" spans="1:7">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D19" s="5">
         <v>201</v>
@@ -1654,19 +1808,19 @@
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" ht="108" spans="1:7">
+      <c r="G19" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:7">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D20" s="5">
         <v>202</v>
@@ -1677,19 +1831,19 @@
       <c r="F20">
         <v>2</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" ht="108" spans="1:7">
+      <c r="G20" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" ht="40.5" spans="1:7">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D21" s="5">
         <v>203</v>
@@ -1700,22 +1854,22 @@
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" ht="108" spans="1:7">
+      <c r="G21" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="72" customHeight="1" spans="1:7">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D22" s="5">
-        <v>301</v>
+        <v>204</v>
       </c>
       <c r="E22">
         <v>-1</v>
@@ -1723,22 +1877,22 @@
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" ht="108" spans="1:7">
+      <c r="G22" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="59" customHeight="1" spans="1:7">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D23" s="5">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E23">
         <v>-1</v>
@@ -1746,9 +1900,386 @@
       <c r="F23">
         <v>2</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" customFormat="1" ht="62" customHeight="1" spans="1:7">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="5">
+        <v>302</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" ht="63" customHeight="1" spans="1:7">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="5">
+        <v>303</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" ht="45" customHeight="1" spans="1:7">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="5">
+        <v>304</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" ht="45" customHeight="1" spans="1:7">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="5">
+        <v>305</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" ht="39" customHeight="1" spans="1:6">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28">
+        <v>401</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" ht="36" customHeight="1" spans="1:6">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29">
+        <v>402</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" ht="34" customHeight="1" spans="1:6">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30">
+        <v>403</v>
+      </c>
+      <c r="E30">
+        <v>-1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" ht="33" customHeight="1" spans="1:6">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31">
+        <v>404</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" ht="81" customHeight="1" spans="1:7">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32">
+        <v>405</v>
+      </c>
+      <c r="E32">
+        <v>-1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" ht="60" customHeight="1" spans="1:6">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33">
+        <v>406</v>
+      </c>
+      <c r="E33">
+        <v>-1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" ht="40.5" spans="1:7">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34">
+        <v>501</v>
+      </c>
+      <c r="E34">
+        <v>-1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" ht="40" customHeight="1" spans="1:6">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35">
+        <v>502</v>
+      </c>
+      <c r="E35">
+        <v>-1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" ht="40" customHeight="1" spans="1:6">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36">
+        <v>503</v>
+      </c>
+      <c r="E36">
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" ht="36" customHeight="1" spans="1:6">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37">
+        <v>504</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" ht="94" customHeight="1" spans="1:7">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38">
+        <v>505</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" ht="40.5" spans="1:7">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39">
+        <v>506</v>
+      </c>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40">
+        <v>601</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" ht="40.5" spans="1:7">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41">
+        <v>602</v>
+      </c>
+      <c r="E41">
+        <v>-1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42">
+        <v>603</v>
+      </c>
+      <c r="E42">
+        <v>-1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43">
+        <v>604</v>
+      </c>
+      <c r="E43">
+        <v>-1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1779,25 +2310,25 @@
     </row>
     <row r="3" ht="73.5" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1960,10 +2491,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -1977,10 +2508,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -1994,10 +2525,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>

--- a/策划文档/ItemData.xlsx
+++ b/策划文档/ItemData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowHeight="17775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
-    <sheet name="关卡" sheetId="2" r:id="rId2"/>
+    <sheet name="经验" sheetId="2" r:id="rId2"/>
     <sheet name="补充用" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="106">
   <si>
     <t>id</t>
   </si>
@@ -342,29 +342,19 @@
     <t>小神通·身前三尺三寸诀</t>
   </si>
   <si>
-    <t>关卡等级</t>
-  </si>
-  <si>
-    <t>持续时长</t>
-  </si>
-  <si>
-    <t>怪物波次</t>
-  </si>
-  <si>
-    <t>波次开始时间</t>
-  </si>
-  <si>
-    <t>怪物id
-怪物类型0怪物等级
-1：随机怪物
-2：跟随怪物
-3：逃跑怪物</t>
-  </si>
-  <si>
-    <t>怪物数量</t>
-  </si>
-  <si>
-    <t>是否奖励</t>
+    <t>level</t>
+  </si>
+  <si>
+    <t>expMax</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>经验等级</t>
+  </si>
+  <si>
+    <t>经验等级上限</t>
   </si>
   <si>
     <t>炽金业力·小</t>
@@ -992,7 +982,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1004,9 +994,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1362,14 +1349,14 @@
   <sheetPr/>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="38.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="38.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="59.25" customWidth="1"/>
@@ -1382,7 +1369,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1405,7 +1392,7 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -1417,7 +1404,7 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1428,16 +1415,16 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
@@ -1451,10 +1438,10 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4">
@@ -1463,7 +1450,7 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1474,10 +1461,10 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5">
@@ -1486,7 +1473,7 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1497,10 +1484,10 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6">
@@ -1509,7 +1496,7 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1520,10 +1507,10 @@
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7">
@@ -1532,7 +1519,7 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1543,10 +1530,10 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8">
@@ -1555,7 +1542,7 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1566,10 +1553,10 @@
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9">
@@ -1578,7 +1565,7 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1589,10 +1576,10 @@
       <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10">
@@ -1601,7 +1588,7 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1612,10 +1599,10 @@
       <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>3</v>
       </c>
       <c r="E11">
@@ -1624,7 +1611,7 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1635,10 +1622,10 @@
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>3</v>
       </c>
       <c r="E12">
@@ -1647,7 +1634,7 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1658,10 +1645,10 @@
       <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>5</v>
       </c>
       <c r="E13">
@@ -1670,7 +1657,7 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1681,10 +1668,10 @@
       <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>5</v>
       </c>
       <c r="E14">
@@ -1693,7 +1680,7 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1704,10 +1691,10 @@
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>5</v>
       </c>
       <c r="E15">
@@ -1716,7 +1703,7 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1727,10 +1714,10 @@
       <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>6</v>
       </c>
       <c r="E16">
@@ -1739,7 +1726,7 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1750,10 +1737,10 @@
       <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>6</v>
       </c>
       <c r="E17">
@@ -1762,7 +1749,7 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1773,10 +1760,10 @@
       <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>6</v>
       </c>
       <c r="E18">
@@ -1785,7 +1772,7 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1796,10 +1783,10 @@
       <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>201</v>
       </c>
       <c r="E19">
@@ -1808,7 +1795,7 @@
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1819,10 +1806,10 @@
       <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>202</v>
       </c>
       <c r="E20">
@@ -1831,7 +1818,7 @@
       <c r="F20">
         <v>2</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1842,10 +1829,10 @@
       <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>203</v>
       </c>
       <c r="E21">
@@ -1854,7 +1841,7 @@
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1865,10 +1852,10 @@
       <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>204</v>
       </c>
       <c r="E22">
@@ -1877,7 +1864,7 @@
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1888,10 +1875,10 @@
       <c r="B23" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>301</v>
       </c>
       <c r="E23">
@@ -1900,7 +1887,7 @@
       <c r="F23">
         <v>2</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" customFormat="1" ht="62" customHeight="1" spans="1:7">
       <c r="A24">
@@ -1909,10 +1896,10 @@
       <c r="B24" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>302</v>
       </c>
       <c r="E24">
@@ -1921,7 +1908,7 @@
       <c r="F24">
         <v>2</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" ht="63" customHeight="1" spans="1:7">
       <c r="A25">
@@ -1930,10 +1917,10 @@
       <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>303</v>
       </c>
       <c r="E25">
@@ -1942,7 +1929,7 @@
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1953,10 +1940,10 @@
       <c r="B26" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>304</v>
       </c>
       <c r="E26">
@@ -1965,7 +1952,7 @@
       <c r="F26">
         <v>2</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1976,10 +1963,10 @@
       <c r="B27" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>305</v>
       </c>
       <c r="E27">
@@ -1988,7 +1975,7 @@
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2076,7 +2063,7 @@
       <c r="F32">
         <v>2</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2113,7 +2100,7 @@
       <c r="F34">
         <v>2</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2184,7 +2171,7 @@
       <c r="F38">
         <v>2</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2204,7 +2191,7 @@
       <c r="F39">
         <v>2</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2241,7 +2228,7 @@
       <c r="F41">
         <v>2</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2261,7 +2248,7 @@
       <c r="F42">
         <v>2</v>
       </c>
-      <c r="G42" s="6"/>
+      <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
@@ -2279,7 +2266,7 @@
       <c r="F43">
         <v>2</v>
       </c>
-      <c r="G43" s="6"/>
+      <c r="G43" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2291,184 +2278,320 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="73.5" customHeight="1" spans="1:7">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>100</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5">
-        <v>101</v>
-      </c>
-      <c r="B4">
-        <v>40</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>101</v>
-      </c>
-      <c r="F4">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:7">
-      <c r="A5" s="5">
-        <v>101</v>
-      </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>201</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:7">
-      <c r="A6" s="5">
-        <v>101</v>
-      </c>
-      <c r="B6">
-        <v>40</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
+      <c r="B8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="E6">
-        <v>101</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:7">
-      <c r="A7" s="5">
-        <v>101</v>
-      </c>
-      <c r="B7">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
+      <c r="B13">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>101</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:7">
-      <c r="A8" s="5">
-        <v>101</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <v>101</v>
-      </c>
-      <c r="F8">
-        <v>50</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="5">
-        <v>101</v>
+      <c r="B23">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -2491,10 +2614,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -2508,10 +2631,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -2525,10 +2648,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>

--- a/策划文档/ItemData.xlsx
+++ b/策划文档/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -277,16 +277,31 @@
     <t>小神通·流火飞星印</t>
   </si>
   <si>
+    <t>召唤一个火焰符箓，每8轮雷劫再次召唤，对一定范围内敌人每秒喷射一个火球。过载状态：攻速加倍，持续3秒</t>
+  </si>
+  <si>
     <t>小神通·冰川横剑符</t>
   </si>
   <si>
+    <t>召唤一个寒冰剑气符箓，每10轮雷劫再次召唤，剑气围绕符箓旋转，对扫过的敌人造成伤害并减少20%移动速度。过载状态：剑气增长，速度加倍，持续3秒。</t>
+  </si>
+  <si>
     <t>小神通·清风化煞印</t>
   </si>
   <si>
+    <t>召唤一个草木符箓，每8轮雷劫再次召唤，每4秒生成一个治疗法球恢复。过载状态:生出速度翻倍，持续4秒</t>
+  </si>
+  <si>
     <t>小神通·搬山遁甲符</t>
   </si>
   <si>
+    <t>召唤一个盾牌符箓，每8轮雷劫再次召唤，每5秒生成一个护甲恢复法球。过载状态：每秒攻击一个敌人，持续3秒。</t>
+  </si>
+  <si>
     <t>大神通·幻界囚真世</t>
+  </si>
+  <si>
+    <t>召唤一个虚空符箓，每12轮雷劫再次召唤，形成黑洞不断将敌人吸引上限8个。过载状态：引爆黑洞，造成大量伤害并击退。</t>
   </si>
   <si>
     <t>“一真三绝”之一“符法通绝”陆修兰所使用的大神通。
@@ -296,7 +311,13 @@
     <t>大神通·穿念化阴雷</t>
   </si>
   <si>
+    <t>每轮雷劫只会生成一道雷击，雷击道数会转化成为雷电伤害，并将自动串联所有符箓。</t>
+  </si>
+  <si>
     <t>小神通·报春蛊</t>
+  </si>
+  <si>
+    <t>需要5道闪电充能，持续2秒回复生命值，每秒给角色回复10%已损失生命值。</t>
   </si>
   <si>
     <t>每当冬天开始，蛊奴们便开始祈祷春天赶紧到来，虽然冬天里仍能活动的蛊虫数量稀少，但都是极为阴冷痛苦的蛊虫。
@@ -306,13 +327,22 @@
     <t>小神通·环身赤玉蛊</t>
   </si>
   <si>
+    <t>需要10道闪电充能，在自身周围形成一个环形造成伤害持续10秒</t>
+  </si>
+  <si>
     <t>小神通·金蚕蛊</t>
   </si>
   <si>
+    <t>需要6道闪电充能，在身体后方召唤一道墙壁阻挡怪物和子弹，持续5秒</t>
+  </si>
+  <si>
     <t>大神通·三鬼追魂蛊</t>
   </si>
   <si>
     <t>大神通·脏腑养宫蛊</t>
+  </si>
+  <si>
+    <t>角色同时存在4只以上蛊虫时，每隔2秒会自动为一只处于充能状态的蛊虫完全充能</t>
   </si>
   <si>
     <t>仅存在于远古传说中的蛊咒，将自己的器官化作饲养蛊虫的巢穴，其太过凶险的修炼方法与自杀无异。
@@ -322,6 +352,9 @@
     <t>小神通·小蝇蛊</t>
   </si>
   <si>
+    <t>需要3道闪电充能，自动攻击距离最近的怪物一次</t>
+  </si>
+  <si>
     <t>喜好叮食血肉的微小苍蝇，是最容易被驯服的蛊虫。
 蛊咒是西南边陲无名之林中居民所使用的法术，他们将血肉供奉给蛊虫，来与某种神明建立联系。</t>
   </si>
@@ -329,7 +362,13 @@
     <t>小神通·倩身凝魄步</t>
   </si>
   <si>
+    <t>移动路径上留下一个可以降低怪物速度的减速区域</t>
+  </si>
+  <si>
     <t>小神通·金雷颤魂法</t>
+  </si>
+  <si>
+    <t>雷击会让怪物有几率麻痹</t>
   </si>
   <si>
     <t>在上古时代，雷电是神圣的图腾。
@@ -339,7 +378,13 @@
     <t>小神通·周公游梦身</t>
   </si>
   <si>
+    <t>角色定时进入一段无敌状态</t>
+  </si>
+  <si>
     <t>小神通·身前三尺三寸诀</t>
+  </si>
+  <si>
+    <t>角色每隔一段时间会朝面向方向瞬移一段距离</t>
   </si>
   <si>
     <t>level</t>
@@ -1349,8 +1394,8 @@
   <sheetPr/>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G43"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1979,13 +2024,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" ht="39" customHeight="1" spans="1:6">
+    <row r="28" ht="66" customHeight="1" spans="1:6">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>76</v>
       </c>
+      <c r="C28" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D28">
         <v>401</v>
       </c>
@@ -1996,12 +2044,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" ht="36" customHeight="1" spans="1:6">
+    <row r="29" ht="66" customHeight="1" spans="1:6">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="D29">
         <v>402</v>
@@ -2013,12 +2064,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" ht="34" customHeight="1" spans="1:6">
+    <row r="30" ht="87" customHeight="1" spans="1:6">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D30">
         <v>403</v>
@@ -2030,12 +2084,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" ht="33" customHeight="1" spans="1:6">
+    <row r="31" ht="54" customHeight="1" spans="1:6">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D31">
         <v>404</v>
@@ -2052,7 +2109,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D32">
         <v>405</v>
@@ -2064,7 +2124,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" ht="60" customHeight="1" spans="1:6">
@@ -2072,7 +2132,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="D33">
         <v>406</v>
@@ -2089,7 +2152,10 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="D34">
         <v>501</v>
@@ -2101,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" ht="40" customHeight="1" spans="1:6">
@@ -2109,7 +2175,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="D35">
         <v>502</v>
@@ -2126,7 +2195,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>94</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="D36">
         <v>503</v>
@@ -2143,7 +2215,10 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>96</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="D37">
         <v>504</v>
@@ -2160,7 +2235,10 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>97</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="D38">
         <v>505</v>
@@ -2172,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" ht="40.5" spans="1:7">
@@ -2180,7 +2258,10 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>100</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="D39">
         <v>506</v>
@@ -2192,15 +2273,18 @@
         <v>2</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" ht="27" spans="1:6">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>103</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="D40">
         <v>601</v>
@@ -2217,7 +2301,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>105</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="D41">
         <v>602</v>
@@ -2229,15 +2316,18 @@
         <v>2</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" ht="35" customHeight="1" spans="1:7">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>108</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="D42">
         <v>603</v>
@@ -2250,12 +2340,15 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" ht="34" customHeight="1" spans="1:7">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="D43">
         <v>604</v>
@@ -2280,7 +2373,7 @@
   <sheetPr/>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -2292,10 +2385,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2303,15 +2396,15 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2614,10 +2707,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -2631,10 +2724,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -2648,10 +2741,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>

--- a/策划文档/ItemData.xlsx
+++ b/策划文档/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="15750" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="133">
   <si>
     <t>id</t>
   </si>
@@ -385,6 +385,42 @@
   </si>
   <si>
     <t>角色每隔一段时间会朝面向方向瞬移一段距离</t>
+  </si>
+  <si>
+    <t>神行·阴</t>
+  </si>
+  <si>
+    <t>将自身速度按一定比例转化为雷劫频率</t>
+  </si>
+  <si>
+    <t>神行·阳</t>
+  </si>
+  <si>
+    <t>将自身速度按一定比例转化为雷劫道数</t>
+  </si>
+  <si>
+    <t>修命·阴</t>
+  </si>
+  <si>
+    <t>将自身生命值按一定比例转化为雷劫道数</t>
+  </si>
+  <si>
+    <t>修命·阳</t>
+  </si>
+  <si>
+    <t>将自身生命值按一定比例转化为雷劫伤害</t>
+  </si>
+  <si>
+    <t>天罡·阴</t>
+  </si>
+  <si>
+    <t>将自身护甲值按一定比例转化为雷劫伤害</t>
+  </si>
+  <si>
+    <t>天罡·阳</t>
+  </si>
+  <si>
+    <t>将自身护甲值按一定比例转化为雷劫频率</t>
   </si>
   <si>
     <t>level</t>
@@ -1027,7 +1063,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1044,6 +1080,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1392,10 +1431,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2360,6 +2399,126 @@
         <v>2</v>
       </c>
       <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44">
+        <v>1001</v>
+      </c>
+      <c r="E44">
+        <v>-1</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45">
+        <v>1002</v>
+      </c>
+      <c r="E45">
+        <v>-1</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46">
+        <v>1003</v>
+      </c>
+      <c r="E46">
+        <v>-1</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47">
+        <v>1004</v>
+      </c>
+      <c r="E47">
+        <v>-1</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48">
+        <v>1005</v>
+      </c>
+      <c r="E48">
+        <v>-1</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49">
+        <v>1006</v>
+      </c>
+      <c r="E49">
+        <v>-1</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2385,10 +2544,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2396,15 +2555,15 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2707,10 +2866,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -2724,10 +2883,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -2741,10 +2900,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>

--- a/策划文档/ItemData.xlsx
+++ b/策划文档/ItemData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15750" windowHeight="8880"/>
+    <workbookView windowWidth="27945" windowHeight="12960" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
     <sheet name="经验" sheetId="2" r:id="rId2"/>
     <sheet name="补充用" sheetId="3" r:id="rId3"/>
+    <sheet name="初始遗物" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="146">
   <si>
     <t>id</t>
   </si>
@@ -448,6 +449,45 @@
   </si>
   <si>
     <t>炽金业力·大</t>
+  </si>
+  <si>
+    <t>cs001</t>
+  </si>
+  <si>
+    <t>朱砂黄符</t>
+  </si>
+  <si>
+    <t>生成一个围绕角色旋转符箓，每秒向最靠近角色的怪物发射子弹，符箓伤害5点，每二十轮雷击之后在地图上结界内随机生成一个定点符箓。</t>
+  </si>
+  <si>
+    <t>cs002</t>
+  </si>
+  <si>
+    <t>白茧</t>
+  </si>
+  <si>
+    <t>生成一个跟随角色移动的蛊虫，角色自身受到三次雷击后激活5秒，攻击距离角色最近的敌人，伤害间隔0.5S，每秒伤害5点。</t>
+  </si>
+  <si>
+    <t>cs003</t>
+  </si>
+  <si>
+    <t>木剑匣</t>
+  </si>
+  <si>
+    <t>生成一个跟随角色移动的剑匣，每当怪物被雷电击中时，射出一道剑气攻击怪物</t>
+  </si>
+  <si>
+    <t>cs004</t>
+  </si>
+  <si>
+    <t>八卦盘</t>
+  </si>
+  <si>
+    <t>初始生命值翻倍，并且在地图中开启奇门的圆心太极两仪。</t>
+  </si>
+  <si>
+    <t>cs005</t>
   </si>
 </sst>
 </file>
@@ -1063,9 +1103,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1078,9 +1124,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1433,14 +1476,14 @@
   <sheetPr/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:F49"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="38.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="38.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="59.25" customWidth="1"/>
@@ -1453,7 +1496,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1476,7 +1519,7 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -1488,7 +1531,7 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1499,16 +1542,16 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
@@ -1522,10 +1565,10 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4">
@@ -1534,7 +1577,7 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1545,10 +1588,10 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5">
@@ -1557,7 +1600,7 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1568,10 +1611,10 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
       <c r="E6">
@@ -1580,7 +1623,7 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1591,10 +1634,10 @@
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>2</v>
       </c>
       <c r="E7">
@@ -1603,7 +1646,7 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1614,10 +1657,10 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <v>2</v>
       </c>
       <c r="E8">
@@ -1626,7 +1669,7 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1637,10 +1680,10 @@
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>2</v>
       </c>
       <c r="E9">
@@ -1649,7 +1692,7 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1660,10 +1703,10 @@
       <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <v>3</v>
       </c>
       <c r="E10">
@@ -1672,7 +1715,7 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1683,10 +1726,10 @@
       <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <v>3</v>
       </c>
       <c r="E11">
@@ -1695,7 +1738,7 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1706,10 +1749,10 @@
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
         <v>3</v>
       </c>
       <c r="E12">
@@ -1718,7 +1761,7 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1729,10 +1772,10 @@
       <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <v>5</v>
       </c>
       <c r="E13">
@@ -1741,7 +1784,7 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1752,10 +1795,10 @@
       <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <v>5</v>
       </c>
       <c r="E14">
@@ -1764,7 +1807,7 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1775,10 +1818,10 @@
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
         <v>5</v>
       </c>
       <c r="E15">
@@ -1787,7 +1830,7 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1798,10 +1841,10 @@
       <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <v>6</v>
       </c>
       <c r="E16">
@@ -1810,7 +1853,7 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1821,10 +1864,10 @@
       <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="6">
         <v>6</v>
       </c>
       <c r="E17">
@@ -1833,7 +1876,7 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1844,10 +1887,10 @@
       <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="6">
         <v>6</v>
       </c>
       <c r="E18">
@@ -1856,7 +1899,7 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1867,10 +1910,10 @@
       <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="6">
         <v>201</v>
       </c>
       <c r="E19">
@@ -1879,7 +1922,7 @@
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1890,10 +1933,10 @@
       <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="6">
         <v>202</v>
       </c>
       <c r="E20">
@@ -1902,7 +1945,7 @@
       <c r="F20">
         <v>2</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1913,10 +1956,10 @@
       <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="6">
         <v>203</v>
       </c>
       <c r="E21">
@@ -1925,7 +1968,7 @@
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1936,10 +1979,10 @@
       <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="6">
         <v>204</v>
       </c>
       <c r="E22">
@@ -1948,7 +1991,7 @@
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1959,10 +2002,10 @@
       <c r="B23" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="6">
         <v>301</v>
       </c>
       <c r="E23">
@@ -1971,7 +2014,7 @@
       <c r="F23">
         <v>2</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" customFormat="1" ht="62" customHeight="1" spans="1:7">
       <c r="A24">
@@ -1980,10 +2023,10 @@
       <c r="B24" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="6">
         <v>302</v>
       </c>
       <c r="E24">
@@ -1992,7 +2035,7 @@
       <c r="F24">
         <v>2</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" ht="63" customHeight="1" spans="1:7">
       <c r="A25">
@@ -2001,10 +2044,10 @@
       <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="6">
         <v>303</v>
       </c>
       <c r="E25">
@@ -2013,7 +2056,7 @@
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2024,10 +2067,10 @@
       <c r="B26" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="6">
         <v>304</v>
       </c>
       <c r="E26">
@@ -2036,7 +2079,7 @@
       <c r="F26">
         <v>2</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2047,10 +2090,10 @@
       <c r="B27" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="6">
         <v>305</v>
       </c>
       <c r="E27">
@@ -2059,7 +2102,7 @@
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2070,7 +2113,7 @@
       <c r="B28" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D28">
@@ -2090,7 +2133,7 @@
       <c r="B29" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D29">
@@ -2110,7 +2153,7 @@
       <c r="B30" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D30">
@@ -2130,7 +2173,7 @@
       <c r="B31" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D31">
@@ -2150,7 +2193,7 @@
       <c r="B32" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D32">
@@ -2162,7 +2205,7 @@
       <c r="F32">
         <v>2</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2173,7 +2216,7 @@
       <c r="B33" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D33">
@@ -2193,7 +2236,7 @@
       <c r="B34" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D34">
@@ -2205,7 +2248,7 @@
       <c r="F34">
         <v>2</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2216,7 +2259,7 @@
       <c r="B35" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D35">
@@ -2236,7 +2279,7 @@
       <c r="B36" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D36">
@@ -2256,7 +2299,7 @@
       <c r="B37" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D37">
@@ -2276,7 +2319,7 @@
       <c r="B38" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D38">
@@ -2288,7 +2331,7 @@
       <c r="F38">
         <v>2</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2299,7 +2342,7 @@
       <c r="B39" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D39">
@@ -2311,7 +2354,7 @@
       <c r="F39">
         <v>2</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2322,7 +2365,7 @@
       <c r="B40" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D40">
@@ -2342,7 +2385,7 @@
       <c r="B41" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D41">
@@ -2354,7 +2397,7 @@
       <c r="F41">
         <v>2</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2365,7 +2408,7 @@
       <c r="B42" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D42">
@@ -2377,7 +2420,7 @@
       <c r="F42">
         <v>2</v>
       </c>
-      <c r="G42" s="5"/>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" ht="34" customHeight="1" spans="1:7">
       <c r="A43">
@@ -2386,7 +2429,7 @@
       <c r="B43" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D43">
@@ -2398,16 +2441,16 @@
       <c r="F43">
         <v>2</v>
       </c>
-      <c r="G43" s="5"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
         <v>41</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="7" t="s">
         <v>113</v>
       </c>
       <c r="D44">
@@ -2424,10 +2467,10 @@
       <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D45">
@@ -2444,10 +2487,10 @@
       <c r="A46">
         <v>43</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D46">
@@ -2464,10 +2507,10 @@
       <c r="A47">
         <v>44</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>119</v>
       </c>
       <c r="D47">
@@ -2484,10 +2527,10 @@
       <c r="A48">
         <v>45</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D48">
@@ -2504,10 +2547,10 @@
       <c r="A49">
         <v>46</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>123</v>
       </c>
       <c r="D49">
@@ -2567,7 +2610,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4">
@@ -2575,7 +2618,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5">
@@ -2583,7 +2626,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6">
@@ -2591,7 +2634,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7">
@@ -2599,7 +2642,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8">
@@ -2607,7 +2650,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9">
@@ -2615,7 +2658,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
       <c r="B10">
@@ -2623,7 +2666,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11">
@@ -2631,7 +2674,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12">
@@ -2639,7 +2682,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13">
@@ -2647,7 +2690,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4">
+      <c r="A14" s="6">
         <v>11</v>
       </c>
       <c r="B14">
@@ -2655,7 +2698,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4">
+      <c r="A15" s="6">
         <v>12</v>
       </c>
       <c r="B15">
@@ -2663,7 +2706,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4">
+      <c r="A16" s="6">
         <v>13</v>
       </c>
       <c r="B16">
@@ -2671,7 +2714,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
       <c r="B17">
@@ -2679,7 +2722,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4">
+      <c r="A18" s="6">
         <v>15</v>
       </c>
       <c r="B18">
@@ -2687,7 +2730,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4">
+      <c r="A19" s="6">
         <v>16</v>
       </c>
       <c r="B19">
@@ -2695,7 +2738,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4">
+      <c r="A20" s="6">
         <v>17</v>
       </c>
       <c r="B20">
@@ -2703,7 +2746,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4">
+      <c r="A21" s="6">
         <v>18</v>
       </c>
       <c r="B21">
@@ -2711,7 +2754,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4">
+      <c r="A22" s="6">
         <v>19</v>
       </c>
       <c r="B22">
@@ -2719,7 +2762,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4">
+      <c r="A23" s="6">
         <v>20</v>
       </c>
       <c r="B23">
@@ -2727,7 +2770,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4">
+      <c r="A24" s="6">
         <v>21</v>
       </c>
       <c r="B24">
@@ -2735,7 +2778,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4">
+      <c r="A25" s="6">
         <v>22</v>
       </c>
       <c r="B25">
@@ -2743,7 +2786,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4">
+      <c r="A26" s="6">
         <v>23</v>
       </c>
       <c r="B26">
@@ -2751,7 +2794,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4">
+      <c r="A27" s="6">
         <v>24</v>
       </c>
       <c r="B27">
@@ -2759,7 +2802,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4">
+      <c r="A28" s="6">
         <v>25</v>
       </c>
       <c r="B28">
@@ -2767,7 +2810,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4">
+      <c r="A29" s="6">
         <v>26</v>
       </c>
       <c r="B29">
@@ -2775,7 +2818,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4">
+      <c r="A30" s="6">
         <v>27</v>
       </c>
       <c r="B30">
@@ -2783,7 +2826,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4">
+      <c r="A31" s="6">
         <v>28</v>
       </c>
       <c r="B31">
@@ -2791,7 +2834,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="4">
+      <c r="A32" s="6">
         <v>29</v>
       </c>
       <c r="B32">
@@ -2799,7 +2842,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="4">
+      <c r="A33" s="6">
         <v>30</v>
       </c>
       <c r="B33">
@@ -2807,7 +2850,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="4">
+      <c r="A34" s="6">
         <v>31</v>
       </c>
       <c r="B34">
@@ -2815,7 +2858,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="4">
+      <c r="A35" s="6">
         <v>32</v>
       </c>
       <c r="B35">
@@ -2823,7 +2866,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="4">
+      <c r="A36" s="6">
         <v>33</v>
       </c>
       <c r="B36">
@@ -2831,7 +2874,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="4">
+      <c r="A37" s="6">
         <v>34</v>
       </c>
       <c r="B37">
@@ -2839,7 +2882,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="4">
+      <c r="A38" s="6">
         <v>35</v>
       </c>
       <c r="B38">
@@ -2864,54 +2907,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="2:6">
-      <c r="B1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" ht="27" spans="2:6">
+      <c r="B1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="5">
         <v>7</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="3">
         <v>1</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="27" spans="2:6">
-      <c r="B2" s="1" t="s">
+    <row r="2" s="3" customFormat="1" ht="27" spans="2:6">
+      <c r="B2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="27" spans="2:6">
-      <c r="B3" s="1" t="s">
+    <row r="3" s="3" customFormat="1" ht="27" spans="2:6">
+      <c r="B3" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2920,4 +2963,142 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="47.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="162" spans="1:7">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:3">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:3">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:3">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" ht="31" customHeight="1" spans="1:3">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>